--- a/Results/Asthma_PRV.xlsx
+++ b/Results/Asthma_PRV.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="57">
   <si>
     <t>FIPS</t>
   </si>
@@ -273,15 +273,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>804.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.323383084577115</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -413,15 +407,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>432.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2216.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.494584837545126</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1031,30 +1019,6 @@
       <c r="E52" t="n">
         <v>10.723684210526315</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53" t="n">
-        <v>446.0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1488.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>29.973118279569892</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1104,15 +1068,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1017.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.947885939036382</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1250,15 +1208,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>419.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2272.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18.441901408450704</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1862,39 +1814,6 @@
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1132.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>28.003533568904594</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2084,15 +2003,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>389.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2045.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.02200488997555</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2702,39 +2615,6 @@
       <c r="E52" t="n">
         <v>9.45520036019811</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1130.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>28.053097345132745</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2924,15 +2804,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>368.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1881.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>19.56406166932483</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3506,39 +3380,6 @@
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="n">
-        <v>256.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1062.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>24.105461393596986</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3728,15 +3569,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>317.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1671.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18.970676241771393</v>
-      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4334,39 +4169,6 @@
       <c r="E52" t="n">
         <v>11.267605633802818</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="n">
-        <v>174.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>784.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>22.193877551020407</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4409,724 +4211,690 @@
         <v>157450.00456785876</v>
       </c>
       <c r="D2" t="n">
-        <v>933576.5380631094</v>
+        <v>1091026.5426309681</v>
       </c>
       <c r="E2" t="n">
-        <v>16.865248659153345</v>
+        <v>14.431363345952535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>57127.58758295154</v>
+        <v>866487.1122159892</v>
       </c>
       <c r="D3" t="n">
-        <v>507570.99737008486</v>
+        <v>6631643.360124848</v>
       </c>
       <c r="E3" t="n">
-        <v>11.255092958216867</v>
+        <v>13.065948591657628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1092579.3259606673</v>
+        <v>4513981.265956005</v>
       </c>
       <c r="D4" t="n">
-        <v>7125252.430895705</v>
+        <v>3.694476216889343E7</v>
       </c>
       <c r="E4" t="n">
-        <v>15.333903416855096</v>
+        <v>12.218190078800035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>5700292.94860751</v>
+        <v>515371.889014145</v>
       </c>
       <c r="D5" t="n">
-        <v>4.069243172024505E7</v>
+        <v>3216911.134948612</v>
       </c>
       <c r="E5" t="n">
-        <v>14.008238651836418</v>
+        <v>16.02070642906888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>515371.889014145</v>
+        <v>37621.98624757164</v>
       </c>
       <c r="D6" t="n">
-        <v>2701539.245934467</v>
+        <v>206483.30947034978</v>
       </c>
       <c r="E6" t="n">
-        <v>19.07697212948972</v>
+        <v>18.220352213491626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>37621.98624757164</v>
+        <v>109403.39658694674</v>
       </c>
       <c r="D7" t="n">
-        <v>168861.32322277813</v>
+        <v>550985.4432505644</v>
       </c>
       <c r="E7" t="n">
-        <v>22.279812528732286</v>
+        <v>19.855950447895008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>129418.99503092623</v>
+        <v>1847944.0559254412</v>
       </c>
       <c r="D8" t="n">
-        <v>525540.9485892595</v>
+        <v>1.2211231561340636E7</v>
       </c>
       <c r="E8" t="n">
-        <v>24.625863194549016</v>
+        <v>15.133150547859733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>2180300.1584209166</v>
+        <v>104996.84186401556</v>
       </c>
       <c r="D9" t="n">
-        <v>1.2354298971853659E7</v>
+        <v>1168919.0900528755</v>
       </c>
       <c r="E9" t="n">
-        <v>17.64810907837194</v>
+        <v>8.982387468688366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>329681.2449353244</v>
+        <v>1580895.706567785</v>
       </c>
       <c r="D10" t="n">
-        <v>1432043.3447757273</v>
+        <v>1.275837067075068E7</v>
       </c>
       <c r="E10" t="n">
-        <v>23.02173646754777</v>
+        <v>12.391047002514844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>140783.03270965262</v>
+        <v>1006366.2885382811</v>
       </c>
       <c r="D11" t="n">
-        <v>1406948.5090728025</v>
+        <v>7837909.728326183</v>
       </c>
       <c r="E11" t="n">
-        <v>10.006267592723097</v>
+        <v>12.839727981317218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>1580895.706567785</v>
+        <v>287608.6462125769</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1177474964182895E7</v>
+        <v>3410013.627202459</v>
       </c>
       <c r="E12" t="n">
-        <v>14.143585305568635</v>
+        <v>8.434237444632387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>1199169.5196101987</v>
+        <v>396146.7413020134</v>
       </c>
       <c r="D13" t="n">
-        <v>8210285.802723642</v>
+        <v>3428397.615133414</v>
       </c>
       <c r="E13" t="n">
-        <v>14.605697638593673</v>
+        <v>11.554865735332672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>349279.2778941175</v>
+        <v>413087.5759674031</v>
       </c>
       <c r="D14" t="n">
-        <v>3739054.9750721953</v>
+        <v>2957081.5267942287</v>
       </c>
       <c r="E14" t="n">
-        <v>9.341378509348434</v>
+        <v>13.969434803349209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>476585.0684461378</v>
+        <v>282442.7614159923</v>
       </c>
       <c r="D15" t="n">
-        <v>3631029.625014232</v>
+        <v>2178496.230470162</v>
       </c>
       <c r="E15" t="n">
-        <v>13.125342331633272</v>
+        <v>12.96503328605878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>541725.4200162261</v>
+        <v>109119.52465686374</v>
       </c>
       <c r="D16" t="n">
-        <v>3386646.2974779336</v>
+        <v>825220.5687211744</v>
       </c>
       <c r="E16" t="n">
-        <v>15.99592553906955</v>
+        <v>13.223073780863679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>282442.7614159923</v>
+        <v>1002975.984780239</v>
       </c>
       <c r="D17" t="n">
-        <v>1896053.4690541695</v>
+        <v>6754689.3152769</v>
       </c>
       <c r="E17" t="n">
-        <v>14.896350025238819</v>
+        <v>14.848587965575783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>143584.62430683197</v>
+        <v>1625547.03354681</v>
       </c>
       <c r="D18" t="n">
-        <v>959137.6657635967</v>
+        <v>1.1990510426796142E7</v>
       </c>
       <c r="E18" t="n">
-        <v>14.970178883812283</v>
+        <v>13.55694608224577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>1183030.253144432</v>
+        <v>115805.68122609484</v>
       </c>
       <c r="D19" t="n">
-        <v>6945863.91466165</v>
+        <v>1222301.5589915775</v>
       </c>
       <c r="E19" t="n">
-        <v>17.0321542097483</v>
+        <v>9.474395281115143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
-        <v>1941250.606051029</v>
+        <v>515551.3439893284</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2539047788085325E7</v>
+        <v>3630502.6189303007</v>
       </c>
       <c r="E20" t="n">
-        <v>15.481642935403887</v>
+        <v>14.20055011945513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>231611.36245218967</v>
+        <v>766863.5236230671</v>
       </c>
       <c r="D21" t="n">
-        <v>2212991.7555309655</v>
+        <v>5518463.724450555</v>
       </c>
       <c r="E21" t="n">
-        <v>10.465983972751806</v>
+        <v>13.896322634600988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>621079.8123088657</v>
+        <v>102944.19611154444</v>
       </c>
       <c r="D22" t="n">
-        <v>3748595.7486681305</v>
+        <v>1059004.3401108915</v>
       </c>
       <c r="E22" t="n">
-        <v>16.568332622410253</v>
+        <v>9.720847423605917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>954083.7091412593</v>
+        <v>204904.80981110327</v>
       </c>
       <c r="D23" t="n">
-        <v>5927080.714870313</v>
+        <v>2201247.7197266174</v>
       </c>
       <c r="E23" t="n">
-        <v>16.097025754138645</v>
+        <v>9.308575676187472</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>123322.15428260414</v>
+        <v>351541.34141214454</v>
       </c>
       <c r="D24" t="n">
-        <v>1142511.0006560623</v>
+        <v>3232267.2275993405</v>
       </c>
       <c r="E24" t="n">
-        <v>10.79395771347401</v>
+        <v>10.875998692510342</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>248787.24782539476</v>
+        <v>107549.14772854405</v>
       </c>
       <c r="D25" t="n">
-        <v>2386136.2151136803</v>
+        <v>886427.4615532869</v>
       </c>
       <c r="E25" t="n">
-        <v>10.426364021030627</v>
+        <v>12.132876337121333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>424638.3866192775</v>
+        <v>1168380.2370796714</v>
       </c>
       <c r="D26" t="n">
-        <v>3431151.3762954967</v>
+        <v>8196056.390538524</v>
       </c>
       <c r="E26" t="n">
-        <v>12.375973545001266</v>
+        <v>14.255395295089016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" t="n">
-        <v>146608.87537361917</v>
+        <v>179120.75376638884</v>
       </c>
       <c r="D27" t="n">
-        <v>1038727.5374999437</v>
+        <v>1497759.9561924192</v>
       </c>
       <c r="E27" t="n">
-        <v>14.114276369959732</v>
+        <v>11.959243070014148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>1497677.8034141748</v>
+        <v>2781426.375356151</v>
       </c>
       <c r="D28" t="n">
-        <v>8832514.222640324</v>
+        <v>1.7587680554876994E7</v>
       </c>
       <c r="E28" t="n">
-        <v>16.956415417652966</v>
+        <v>15.814628692382476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>179120.75376638884</v>
+        <v>37699.56334368641</v>
       </c>
       <c r="D29" t="n">
-        <v>1318639.2024260303</v>
+        <v>425778.2815509131</v>
       </c>
       <c r="E29" t="n">
-        <v>13.58375766751381</v>
+        <v>8.854271102406717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>3448329.3514454076</v>
+        <v>997197.7980750023</v>
       </c>
       <c r="D30" t="n">
-        <v>1.8599346709580038E7</v>
+        <v>8133869.580413682</v>
       </c>
       <c r="E30" t="n">
-        <v>18.540056300306844</v>
+        <v>12.259820350159654</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>37699.56334368641</v>
+        <v>487287.2730343682</v>
       </c>
       <c r="D31" t="n">
-        <v>388078.71820722666</v>
+        <v>3491912.5849495833</v>
       </c>
       <c r="E31" t="n">
-        <v>9.71441142607453</v>
+        <v>13.954738590382087</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>1260235.1660664028</v>
+        <v>281481.12543031445</v>
       </c>
       <c r="D32" t="n">
-        <v>9589666.825220093</v>
+        <v>2525767.163670863</v>
       </c>
       <c r="E32" t="n">
-        <v>13.141594896207243</v>
+        <v>11.14438137762546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>598545.1228345633</v>
+        <v>1905109.2449985659</v>
       </c>
       <c r="D33" t="n">
-        <v>3748219.0285714557</v>
+        <v>1.3667687409110986E7</v>
       </c>
       <c r="E33" t="n">
-        <v>15.968787263285531</v>
+        <v>13.938782677518697</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>281481.12543031445</v>
+        <v>145915.22512547293</v>
       </c>
       <c r="D34" t="n">
-        <v>2244286.0382405487</v>
+        <v>907042.8718127855</v>
       </c>
       <c r="E34" t="n">
-        <v>12.542123447463362</v>
+        <v>16.086916027888698</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C35" t="n">
-        <v>2236142.528793515</v>
+        <v>3420043.6562700826</v>
       </c>
       <c r="D35" t="n">
-        <v>1.418637363387284E7</v>
+        <v>2.6030067579157054E7</v>
       </c>
       <c r="E35" t="n">
-        <v>15.762608447406686</v>
+        <v>13.13881973556073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C36" t="n">
-        <v>184407.5701017003</v>
+        <v>404738.42055012786</v>
       </c>
       <c r="D36" t="n">
-        <v>958211.0548010364</v>
+        <v>3963226.5196104664</v>
       </c>
       <c r="E36" t="n">
-        <v>19.244984617714604</v>
+        <v>10.21234639371328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="n">
-        <v>4264431.760473047</v>
+        <v>89457.40950244437</v>
       </c>
       <c r="D37" t="n">
-        <v>2.8049095709229365E7</v>
+        <v>646238.5548435429</v>
       </c>
       <c r="E37" t="n">
-        <v>15.20345541503452</v>
+        <v>13.842784345186956</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="n">
-        <v>473386.8764994106</v>
+        <v>979105.1491755865</v>
       </c>
       <c r="D38" t="n">
-        <v>4244242.246229413</v>
+        <v>7200938.098480222</v>
       </c>
       <c r="E38" t="n">
-        <v>11.15362528894216</v>
+        <v>13.59691106610442</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" t="n">
-        <v>106426.93334994782</v>
+        <v>330137.8695229291</v>
       </c>
       <c r="D39" t="n">
-        <v>672152.9382087591</v>
+        <v>3063863.432174641</v>
       </c>
       <c r="E39" t="n">
-        <v>15.833737725459955</v>
+        <v>10.775214915131084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
-        <v>1236603.2136461774</v>
+        <v>238133.07028626621</v>
       </c>
       <c r="D40" t="n">
-        <v>7762684.672785722</v>
+        <v>1877224.0092325318</v>
       </c>
       <c r="E40" t="n">
-        <v>15.930097199251678</v>
+        <v>12.685383796237643</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" t="n">
-        <v>330137.8695229291</v>
+        <v>410614.6794413228</v>
       </c>
       <c r="D41" t="n">
-        <v>2733725.5626517124</v>
+        <v>3890402.9564449224</v>
       </c>
       <c r="E41" t="n">
-        <v>12.076481781247109</v>
+        <v>10.554553963647647</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="n">
-        <v>280265.08642294514</v>
+        <v>34970.686195598726</v>
       </c>
       <c r="D42" t="n">
-        <v>1970222.2956110057</v>
+        <v>367927.95107951324</v>
       </c>
       <c r="E42" t="n">
-        <v>14.225048972762197</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="n">
-        <v>542078.5132503643</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4639831.465156127</v>
-      </c>
-      <c r="E43" t="n">
-        <v>11.683150936003313</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="n">
-        <v>47767.28219767551</v>
-      </c>
-      <c r="D44" t="n">
-        <v>436874.5829290889</v>
-      </c>
-      <c r="E44" t="n">
-        <v>10.933866163010181</v>
+        <v>9.504764748911718</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Asthma_PRV.xlsx
+++ b/Results/Asthma_PRV.xlsx
@@ -11,13 +11,12 @@
     <sheet name="2008" r:id="rId5" sheetId="3"/>
     <sheet name="2009" r:id="rId6" sheetId="4"/>
     <sheet name="2010" r:id="rId7" sheetId="5"/>
-    <sheet name="Aggregate" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="56">
   <si>
     <t>FIPS</t>
   </si>
@@ -185,9 +184,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>PRV per 100</t>
   </si>
 </sst>
 </file>
@@ -4173,731 +4169,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157450.00456785876</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1091026.5426309681</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14.431363345952535</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>866487.1122159892</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6631643.360124848</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.065948591657628</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4513981.265956005</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.694476216889343E7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.218190078800035</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>515371.889014145</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3216911.134948612</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16.02070642906888</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>37621.98624757164</v>
-      </c>
-      <c r="D6" t="n">
-        <v>206483.30947034978</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18.220352213491626</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>109403.39658694674</v>
-      </c>
-      <c r="D7" t="n">
-        <v>550985.4432505644</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19.855950447895008</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1847944.0559254412</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.2211231561340636E7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.133150547859733</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="n">
-        <v>104996.84186401556</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1168919.0900528755</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.982387468688366</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1580895.706567785</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.275837067075068E7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.391047002514844</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1006366.2885382811</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7837909.728326183</v>
-      </c>
-      <c r="E11" t="n">
-        <v>12.839727981317218</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="n">
-        <v>287608.6462125769</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3410013.627202459</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.434237444632387</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>396146.7413020134</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3428397.615133414</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.554865735332672</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>413087.5759674031</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2957081.5267942287</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.969434803349209</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>282442.7614159923</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2178496.230470162</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.96503328605878</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>109119.52465686374</v>
-      </c>
-      <c r="D16" t="n">
-        <v>825220.5687211744</v>
-      </c>
-      <c r="E16" t="n">
-        <v>13.223073780863679</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1002975.984780239</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6754689.3152769</v>
-      </c>
-      <c r="E17" t="n">
-        <v>14.848587965575783</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1625547.03354681</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.1990510426796142E7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13.55694608224577</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="n">
-        <v>115805.68122609484</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1222301.5589915775</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.474395281115143</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="n">
-        <v>515551.3439893284</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3630502.6189303007</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14.20055011945513</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="n">
-        <v>766863.5236230671</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5518463.724450555</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13.896322634600988</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="n">
-        <v>102944.19611154444</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1059004.3401108915</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.720847423605917</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="n">
-        <v>204904.80981110327</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2201247.7197266174</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.308575676187472</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="n">
-        <v>351541.34141214454</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3232267.2275993405</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.875998692510342</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="n">
-        <v>107549.14772854405</v>
-      </c>
-      <c r="D25" t="n">
-        <v>886427.4615532869</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12.132876337121333</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1168380.2370796714</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8196056.390538524</v>
-      </c>
-      <c r="E26" t="n">
-        <v>14.255395295089016</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="n">
-        <v>179120.75376638884</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1497759.9561924192</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11.959243070014148</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2781426.375356151</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.7587680554876994E7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15.814628692382476</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="n">
-        <v>37699.56334368641</v>
-      </c>
-      <c r="D29" t="n">
-        <v>425778.2815509131</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.854271102406717</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="n">
-        <v>997197.7980750023</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8133869.580413682</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.259820350159654</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="n">
-        <v>487287.2730343682</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3491912.5849495833</v>
-      </c>
-      <c r="E31" t="n">
-        <v>13.954738590382087</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="n">
-        <v>281481.12543031445</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2525767.163670863</v>
-      </c>
-      <c r="E32" t="n">
-        <v>11.14438137762546</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1905109.2449985659</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.3667687409110986E7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>13.938782677518697</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="n">
-        <v>145915.22512547293</v>
-      </c>
-      <c r="D34" t="n">
-        <v>907042.8718127855</v>
-      </c>
-      <c r="E34" t="n">
-        <v>16.086916027888698</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3420043.6562700826</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.6030067579157054E7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13.13881973556073</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="n">
-        <v>404738.42055012786</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3963226.5196104664</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10.21234639371328</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="n">
-        <v>89457.40950244437</v>
-      </c>
-      <c r="D37" t="n">
-        <v>646238.5548435429</v>
-      </c>
-      <c r="E37" t="n">
-        <v>13.842784345186956</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="n">
-        <v>979105.1491755865</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7200938.098480222</v>
-      </c>
-      <c r="E38" t="n">
-        <v>13.59691106610442</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
-        <v>330137.8695229291</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3063863.432174641</v>
-      </c>
-      <c r="E39" t="n">
-        <v>10.775214915131084</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" t="n">
-        <v>238133.07028626621</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1877224.0092325318</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.685383796237643</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="n">
-        <v>410614.6794413228</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3890402.9564449224</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10.554553963647647</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="n">
-        <v>34970.686195598726</v>
-      </c>
-      <c r="D42" t="n">
-        <v>367927.95107951324</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.504764748911718</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/Results/Asthma_PRV.xlsx
+++ b/Results/Asthma_PRV.xlsx
@@ -11,12 +11,13 @@
     <sheet name="2008" r:id="rId5" sheetId="3"/>
     <sheet name="2009" r:id="rId6" sheetId="4"/>
     <sheet name="2010" r:id="rId7" sheetId="5"/>
+    <sheet name="Aggregate" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="57">
   <si>
     <t>FIPS</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>PRV per 100</t>
   </si>
 </sst>
 </file>
@@ -4169,4 +4173,731 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157450.00456785876</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1091026.5426309681</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.431363345952535</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>866487.1122159892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6631643.360124848</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.065948591657628</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4513981.265956005</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.694476216889343E7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.218190078800035</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>515371.889014145</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3216911.134948612</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.02070642906888</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37621.98624757164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>206483.30947034978</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.220352213491626</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>109403.39658694674</v>
+      </c>
+      <c r="D7" t="n">
+        <v>550985.4432505644</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.855950447895008</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1847944.0559254412</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2211231561340636E7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.133150547859733</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>104996.84186401556</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1168919.0900528755</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.982387468688366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1580895.706567785</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.275837067075068E7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.391047002514844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1006366.2885382811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7837909.728326183</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.839727981317218</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>287608.6462125769</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3410013.627202459</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.434237444632387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>396146.7413020134</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3428397.615133414</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.554865735332672</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>413087.5759674031</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2957081.5267942287</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13.969434803349209</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>282442.7614159923</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2178496.230470162</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.96503328605878</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>109119.52465686374</v>
+      </c>
+      <c r="D16" t="n">
+        <v>825220.5687211744</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.223073780863679</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1002975.984780239</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6754689.3152769</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.848587965575783</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1625547.03354681</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.1990510426796142E7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.55694608224577</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>115805.68122609484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1222301.5589915775</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.474395281115143</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="n">
+        <v>515551.3439893284</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3630502.6189303007</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.20055011945513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>766863.5236230671</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5518463.724450555</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.896322634600988</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="n">
+        <v>102944.19611154444</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1059004.3401108915</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.720847423605917</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>204904.80981110327</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2201247.7197266174</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.308575676187472</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>351541.34141214454</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3232267.2275993405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.875998692510342</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>107549.14772854405</v>
+      </c>
+      <c r="D25" t="n">
+        <v>886427.4615532869</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.132876337121333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1168380.2370796714</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8196056.390538524</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.255395295089016</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>179120.75376638884</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1497759.9561924192</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11.959243070014148</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2781426.375356151</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.7587680554876994E7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15.814628692382476</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>37699.56334368641</v>
+      </c>
+      <c r="D29" t="n">
+        <v>425778.2815509131</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.854271102406717</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
+        <v>997197.7980750023</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8133869.580413682</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.259820350159654</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="n">
+        <v>487287.2730343682</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3491912.5849495833</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13.954738590382087</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="n">
+        <v>281481.12543031445</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2525767.163670863</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.14438137762546</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1905109.2449985659</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.3667687409110986E7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13.938782677518697</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="n">
+        <v>145915.22512547293</v>
+      </c>
+      <c r="D34" t="n">
+        <v>907042.8718127855</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16.086916027888698</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3420043.6562700826</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.6030067579157054E7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13.13881973556073</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>404738.42055012786</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3963226.5196104664</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.21234639371328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="n">
+        <v>89457.40950244437</v>
+      </c>
+      <c r="D37" t="n">
+        <v>646238.5548435429</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.842784345186956</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="n">
+        <v>979105.1491755865</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7200938.098480222</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13.59691106610442</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>330137.8695229291</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3063863.432174641</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10.775214915131084</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="n">
+        <v>238133.07028626621</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1877224.0092325318</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.685383796237643</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="n">
+        <v>410614.6794413228</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3890402.9564449224</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10.554553963647647</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34970.686195598726</v>
+      </c>
+      <c r="D42" t="n">
+        <v>367927.95107951324</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.504764748911718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>